--- a/xlsx/伯班克 (加利福尼亚州)_intext.xlsx
+++ b/xlsx/伯班克 (加利福尼亚州)_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>伯班克 (加利福尼亚州)</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>政策_政策_加州_伯班克 (加利福尼亚州)</t>
@@ -35,25 +35,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>加利福尼亞州行政區劃</t>
+    <t>加利福尼亚州行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%9F%B6%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E9%95%B7</t>
   </si>
   <si>
-    <t>市長</t>
+    <t>市长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E5%8C%BA</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%A8%99%E6%BA%96%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>太平洋標準時間</t>
+    <t>太平洋标准时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC-8</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%97%A5%E5%85%89%E7%AF%80%E7%B4%84%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>太平洋日光節約時間</t>
+    <t>太平洋日光节约时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC-7</t>
@@ -107,15 +107,9 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亚州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%9B%E6%9D%89%E7%9F%B6%E5%9C%B0%E5%8C%BA</t>
   </si>
   <si>
@@ -125,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>國家廣播公司</t>
+    <t>国家广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%89%B9%E8%BF%AA%E5%A3%AB%E5%B0%BC%E5%85%AC%E5%8F%B8</t>
@@ -209,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E9%87%8C%E8%92%82%E5%B7%B4</t>
   </si>
   <si>
-    <t>庫里蒂巴</t>
+    <t>库里蒂巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -1010,7 +1004,7 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="G15" t="n">
         <v>6</v>
@@ -1036,10 +1030,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
         <v>7</v>
@@ -1065,10 +1059,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1094,10 +1088,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1123,10 +1117,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1152,10 +1146,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1181,10 +1175,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1210,10 +1204,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1239,10 +1233,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1268,10 +1262,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1297,10 +1291,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1326,10 +1320,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1355,10 +1349,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1384,10 +1378,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1413,10 +1407,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1442,10 +1436,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1471,10 +1465,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1500,10 +1494,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1529,10 +1523,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1558,10 +1552,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1587,10 +1581,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1616,10 +1610,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
